--- a/Facturacion-Dic-2022/docs/Cronograma.xlsx
+++ b/Facturacion-Dic-2022/docs/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Proyectos\Facturacion-Dic-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Proyectos\FacturacionApp\Facturacion-Dic-2022\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F366C-8B6A-406C-8597-0C6AD808D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8881E-30FB-40D6-81CA-A3CEC945ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A42B8D5A-9F31-466A-9FBC-BB56DA1A16AE}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Actividades</t>
   </si>
@@ -53,12 +45,6 @@
     <t>Diseño modulo de facturación</t>
   </si>
   <si>
-    <t>Diseño interfaz de facturación</t>
-  </si>
-  <si>
-    <t>Lenguaje Java</t>
-  </si>
-  <si>
     <t>12/12/2022 - 16/12/2022</t>
   </si>
   <si>
@@ -83,7 +69,19 @@
     <t>23/01/2023 - 27/01/2023</t>
   </si>
   <si>
-    <t>Posible fecha inicial de entrega (28/01/2023)</t>
+    <t>Modificación de los modelos</t>
+  </si>
+  <si>
+    <t>Diseño interfaz de facturación y configuraciones generales</t>
+  </si>
+  <si>
+    <t>30/01/2023 - 03/02/2023</t>
+  </si>
+  <si>
+    <t>Lenguaje: Java - Acceso a datos: Persistencia JSON</t>
+  </si>
+  <si>
+    <t>Posible fecha inicial de entrega (04/02/2023)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -248,38 +246,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,57 +587,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D7A69-CA96-45E7-AB21-0A69C08FBF99}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="2" max="8" width="22.77734375" customWidth="1"/>
     <col min="9" max="9" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
@@ -653,6 +648,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -664,6 +660,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -675,81 +672,94 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="6"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
+      <c r="A7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>14</v>
+      <c r="A8" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>16</v>
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
